--- a/Homework/HW7.xlsx
+++ b/Homework/HW7.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA8E7A9-AE55-4AF8-B3D6-A30803E1953D}"/>
+  <xr:revisionPtr revIDLastSave="1155" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81C0D2C-8A41-40C1-8B8E-F1127A7F6116}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$U$19</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$G$65</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$U$21</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$G$75</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>P</t>
   </si>
@@ -158,6 +158,69 @@
   </si>
   <si>
     <t>is zero to know the x1 value for the azeotrope</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>By seting the two equations below</t>
+  </si>
+  <si>
+    <t>Equal to each other, we can solve for T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Pzero</t>
+  </si>
+  <si>
+    <t>Antoine Constants</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Actonitrile</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>P max</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>T max</t>
+  </si>
+  <si>
+    <t>T min</t>
+  </si>
+  <si>
+    <t>T zero</t>
   </si>
 </sst>
 </file>
@@ -232,7 +295,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632B1F3C-C87A-D80B-0236-C9B8DBCC4CCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -288,7 +351,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FEAF7E-0A28-74D4-C9AF-D4C24D80A46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,7 +395,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1697E32B-126D-E3E6-F7A0-8AD25566CF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -376,7 +439,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8B0658-A2A3-8AC7-ED94-AC28D977EE77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -420,7 +483,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF203AF-C903-B771-7167-28688DF85B58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -476,7 +539,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8644E17D-0FB2-68D0-E3FE-A189EE7EFF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,7 +577,789 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398492</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569720" y="6827520"/>
+          <a:ext cx="2486372" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>543139</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="5753100"/>
+          <a:ext cx="1533739" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127884</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="6362700"/>
+          <a:ext cx="1781424" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="8122920"/>
+          <a:ext cx="2686425" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257354</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="10469880"/>
+          <a:ext cx="1286054" cy="571580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520534</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3253740" y="8618220"/>
+          <a:ext cx="3362794" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568741</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85451</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4770120" y="10317480"/>
+              <a:ext cx="1894621" cy="923651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑎𝑡</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑎𝑡</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6635683-71FE-221B-E1E4-966BDB7A51BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4770120" y="10317480"/>
+              <a:ext cx="1894621" cy="923651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=1/((𝑦_1/(𝑃_1^𝑠𝑎𝑡 )+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠𝑎𝑡 )) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,8 +1940,585 @@
         <v>132.2503445817301</v>
       </c>
     </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>2E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <f>EXP(B34*B31^2)</f>
+        <v>2.5251077119108412</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <f>1-B30</f>
+        <v>0.998</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <f>EXP(B34*B30^2)</f>
+        <v>1.0000037200069192</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0.95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>376.45316637254598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <f>1-B32</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>EXP(B36-B37/F32)</f>
+        <v>25.733890711437549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>EXP(B38-B39/F32)</f>
+        <v>6.8537708108218545E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>B30*F30*F33+B31*F31*F34</f>
+        <v>0.13680178050012634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>10.08</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <f>F35-1/(B32/F30/F33+B33/F31/F34)</f>
+        <v>6.201385377435642E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>14.314500000000001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>14.895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>2756.22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>3413.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>228.06</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>250.523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52">
+        <f>G53*C55+G54*C56</f>
+        <v>0.57251266298457271</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52">
+        <f>1/(K53/C55+K54/C56)</f>
+        <v>0.47760673494544698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <f>EXP($B$46-$B$47/(C52+$B$48))</f>
+        <v>81.628536938689564</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <f>EXP($E$46-$E$47/(C52+$E$48))</f>
+        <v>34.391154215134094</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <f>1-G53</f>
+        <v>0.5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <f>1-K53</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <f>C53/101.325</f>
+        <v>0.80561102332780221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <f>G53*C55/G52</f>
+        <v>0.7035748511902441</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <f>K53*K52/C55</f>
+        <v>0.2964251488097559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <f>C54/101.325</f>
+        <v>0.33941430264134315</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <f>1-G55</f>
+        <v>0.2964251488097559</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <f>1-K55</f>
+        <v>0.7035748511902441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>51.23840515580126</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65">
+        <v>46.315675461003231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <f>EXP($B$46-$B$47/(C65+$B$48))</f>
+        <v>85.296208875260319</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <f>EXP($B$46-$B$47/(G65+$B$48))</f>
+        <v>71.455578924175555</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <f>EXP($E$46-$E$47/(C65+$E$48))</f>
+        <v>36.032036574950865</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <f>EXP($E$46-$E$47/(G65+$E$48))</f>
+        <v>29.869420517337876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68">
+        <f>C66/101.325</f>
+        <v>0.84180813101663277</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68">
+        <f>G66/101.325</f>
+        <v>0.70521173376931212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <f>C67/101.325</f>
+        <v>0.3556085524298136</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <f>G67/101.325</f>
+        <v>0.29478826071885394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>0.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <f>G72*G68/C62</f>
+        <v>0.70521173376931212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <f>1-C70</f>
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <f>1-G70</f>
+        <v>0.29478826623068788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <f>C70*C62/C68</f>
+        <v>0.29697978766026006</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <f>1-C72</f>
+        <v>0.70302021233973999</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <f>1-G72</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <f>C62-1/(C70/C68+C71/C69)</f>
+        <v>-5.4884874423066776E-11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <f>C62-G72*G68-G73*G69</f>
+        <v>2.7559169668567307E-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G55 K55 C72" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Homework/HW7.xlsx
+++ b/Homework/HW7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1155" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81C0D2C-8A41-40C1-8B8E-F1127A7F6116}"/>
+  <xr:revisionPtr revIDLastSave="1168" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE6125A-25BF-47FC-A01B-58AC0C777225}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,16 +467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>186884</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179264</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38206</xdr:rowOff>
+      <xdr:rowOff>76306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,7 +511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6720840" y="4213860"/>
+          <a:off x="7932420" y="4251960"/>
           <a:ext cx="1390844" cy="762106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -523,16 +523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434341</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>8390</xdr:rowOff>
+      <xdr:rowOff>84590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>281941</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>80113</xdr:rowOff>
+      <xdr:rowOff>156313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -567,7 +567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153401" y="4214630"/>
+          <a:off x="9578341" y="4290830"/>
           <a:ext cx="1272540" cy="620363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,9 +2516,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="G55 K55 C72" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>